--- a/public/assests/Drivers.xlsx
+++ b/public/assests/Drivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Office\Live Project\GaurdianLinkAdmin\public\assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F7CBF-F112-49FC-810B-8B29FDE95A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3F0EE-A0A2-4913-BDC5-3F9A2E421D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1140" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>password</t>
@@ -50,6 +47,15 @@
   </si>
   <si>
     <t>driver address</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
 </sst>
 </file>
@@ -312,104 +318,114 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="2" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
+      <c r="E3" s="1">
+        <v>123</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>7894561230</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7894561230</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/assests/Drivers.xlsx
+++ b/public/assests/Drivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Office\Live Project\GaurdianLinkAdmin\public\assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97401BD-E44D-4DDF-BF85-4B3D006C68E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DBF2C7-8DE1-4BC7-9C02-94E6A4923EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>email</t>
   </si>
@@ -39,12 +39,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>driver1@example.com</t>
   </si>
   <si>
@@ -91,6 +85,18 @@
   </si>
   <si>
     <t>&lt;company_name&gt;</t>
+  </si>
+  <si>
+    <t>mobile_no_country_code</t>
+  </si>
+  <si>
+    <t>id_no</t>
+  </si>
+  <si>
+    <t>+27</t>
+  </si>
+  <si>
+    <t>mobile_no</t>
   </si>
 </sst>
 </file>
@@ -117,18 +123,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,8 +151,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,10 +372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -384,18 +384,19 @@
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.6640625" style="2"/>
+    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,76 +410,82 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>123</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
         <v>7894561230</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>362220</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2">
-        <v>362220</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -487,8 +494,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -497,8 +505,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -507,8 +516,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -517,16 +527,17 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/assests/Drivers.xlsx
+++ b/public/assests/Drivers.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Office\Live Project\GaurdianLinkAdmin\public\assests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ashruti\ThibaIngoziAdmin\public\assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DBF2C7-8DE1-4BC7-9C02-94E6A4923EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F9875-4C9A-49F6-946F-24A902E66F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="oR1+A5Ro8dTz+VwSri9NCg6ggnnLe5aS8aMOkWthbzg="/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>email</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Demo</t>
   </si>
   <si>
-    <t>company</t>
-  </si>
-  <si>
     <t>&lt;company_name&gt;</t>
   </si>
   <si>
@@ -93,17 +91,83 @@
     <t>id_no</t>
   </si>
   <si>
-    <t>+27</t>
-  </si>
-  <si>
     <t>mobile_no</t>
+  </si>
+  <si>
+    <t>hijakingId</t>
+  </si>
+  <si>
+    <t>hijakingPass</t>
+  </si>
+  <si>
+    <t>passport_no</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>hardware_status</t>
+  </si>
+  <si>
+    <t>auto_app_update</t>
+  </si>
+  <si>
+    <t>social_app</t>
+  </si>
+  <si>
+    <t>emergency_help</t>
+  </si>
+  <si>
+    <t>emergency_contact_1_email</t>
+  </si>
+  <si>
+    <t>emergency_contact_1_contact</t>
+  </si>
+  <si>
+    <t>emergency_contact_1_country_code</t>
+  </si>
+  <si>
+    <t>emergency_contact_2_email</t>
+  </si>
+  <si>
+    <t>emergency_contact_2_contact</t>
+  </si>
+  <si>
+    <t>emergency_contact_2_country_code</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>isArmed</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>&lt;company_id&gt;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>order_received</t>
+  </si>
+  <si>
+    <t>demo@yopmail.com</t>
+  </si>
+  <si>
+    <t>demo1@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -121,6 +185,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,11 +212,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -154,8 +227,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,10 +449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -396,7 +473,7 @@
     <col min="15" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -439,9 +516,60 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -457,14 +585,14 @@
       <c r="E3" s="1">
         <v>123</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>7894561230</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
@@ -484,8 +612,50 @@
       <c r="N3" t="s">
         <v>16</v>
       </c>
+      <c r="R3" s="2">
+        <v>200</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>77754121</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>77542136</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -496,7 +666,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -507,7 +677,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -518,7 +688,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -529,15 +699,15 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1693,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X3" r:id="rId1" xr:uid="{BEF0740B-D3CE-4CE7-96EE-E412BCDD482B}"/>
+    <hyperlink ref="AA3" r:id="rId2" xr:uid="{2485FA81-F687-4E5E-B177-D3DDE438D05A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>